--- a/quizzes/week2/q2_calcs.xlsx
+++ b/quizzes/week2/q2_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\quizzes\week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0488E1A-5A9C-4220-AC23-9D2FF7DAD8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083EE3E-C338-4E69-810C-EFD9A9B59949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{DB8F5A5E-EC7A-41B5-9FFE-66FAF578D59A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>capital</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>minimax regret</t>
+  </si>
+  <si>
+    <t>check calcs</t>
   </si>
 </sst>
 </file>
@@ -278,19 +281,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -306,6 +300,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFDA77D-E13B-4417-B3F8-50954588682C}">
-  <dimension ref="A3:J13"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +640,12 @@
     <col min="8" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -645,21 +653,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E5" s="16" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="5">
@@ -671,61 +679,73 @@
       <c r="J5" s="6">
         <v>18000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="13" t="s">
+      <c r="M5">
+        <f>H$5*3</f>
+        <v>36000</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:O5" si="0">I$5*3</f>
+        <v>45000</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>342</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>54000</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>0.17</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <f>$E6*$B$3 + MAX((H$5*$B$3/12 - $F6)*$G6, 0)</f>
         <v>12312</v>
       </c>
-      <c r="I6" s="8">
-        <f t="shared" ref="I6:J6" si="0">$E6*$B$3 + MAX((I$5*$B$3/12 - $F6)*$G6, 0)</f>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:J6" si="1">$E6*$B$3 + MAX((I$5*$B$3/12 - $F6)*$G6, 0)</f>
         <v>12312</v>
       </c>
-      <c r="J6" s="9">
-        <f t="shared" si="0"/>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
         <v>12312</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="14" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>325</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>45000</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>0.25</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" ref="H7:J8" si="1">$E7*$B$3 + MAX((H$5*$B$3/12 - $F7)*$G7, 0)</f>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:J8" si="2">$E7*$B$3 + MAX((H$5*$B$3/12 - $F7)*$G7, 0)</f>
         <v>11700</v>
       </c>
-      <c r="I7" s="11">
-        <f t="shared" si="1"/>
+      <c r="I7" s="8">
+        <f t="shared" si="2"/>
         <v>11700</v>
       </c>
-      <c r="J7" s="12">
-        <f t="shared" si="1"/>
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
         <v>13950</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="15" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="4">
@@ -738,19 +758,19 @@
         <v>0.19</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11160</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12870</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14580</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -762,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -771,7 +791,7 @@
         <v>12312</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>10</v>
       </c>

--- a/quizzes/week2/q2_calcs.xlsx
+++ b/quizzes/week2/q2_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\quizzes\week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083EE3E-C338-4E69-810C-EFD9A9B59949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527B9E2-6BBA-4F9D-B331-9FDC1FADB13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{DB8F5A5E-EC7A-41B5-9FFE-66FAF578D59A}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>capital</t>
   </si>
@@ -53,34 +75,68 @@
     <t>monthly fee ($)</t>
   </si>
   <si>
-    <t>cost per extra km ($)</t>
-  </si>
-  <si>
     <t>lease length (months)</t>
   </si>
   <si>
     <t>distance travelled per year (kms)</t>
   </si>
   <si>
-    <t>maximax i.e. minimin</t>
-  </si>
-  <si>
-    <t>maximin i.e. minimax</t>
-  </si>
-  <si>
     <t>minimax regret</t>
   </si>
   <si>
-    <t>check calcs</t>
+    <t>km surcharge ($)</t>
+  </si>
+  <si>
+    <t>regret</t>
+  </si>
+  <si>
+    <t>Part (a) - payoff table</t>
+  </si>
+  <si>
+    <t>Part (b) - decisions</t>
+  </si>
+  <si>
+    <t>Part (c) - expected value criterion</t>
+  </si>
+  <si>
+    <t>payoff (cost) ($)</t>
+  </si>
+  <si>
+    <t>exp. cost ($)</t>
+  </si>
+  <si>
+    <t>lowest exp. cost</t>
+  </si>
+  <si>
+    <t>optimistic (minimin)</t>
+  </si>
+  <si>
+    <t>conservative (minimax)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -107,10 +163,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -120,26 +189,34 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -148,7 +225,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -156,17 +235,45 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -176,7 +283,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -184,23 +291,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -208,14 +350,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -224,29 +414,44 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -261,18 +466,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,33 +536,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,180 +868,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFDA77D-E13B-4417-B3F8-50954588682C}">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H4" s="16" t="s">
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>12000</v>
+      </c>
+      <c r="H5" s="17">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>12000</v>
+      </c>
+      <c r="K5" s="17">
+        <v>15000</v>
+      </c>
+      <c r="L5" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>342</v>
+      </c>
+      <c r="E6" s="15">
+        <v>54000</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:I8" si="0">$D6*$B$3 + MAX((G$5*$B$3/12 - $E6)*$F6, 0)</f>
+        <v>12312</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>12312</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="0"/>
+        <v>12312</v>
+      </c>
+      <c r="J6" s="14">
+        <f>ABS(MIN(G$6:G$8) - G6)</f>
+        <v>1152</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" ref="K6:L8" si="1">ABS(MIN(H$6:H$8) - H6)</f>
+        <v>612</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>325</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>13950</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" ref="J7:J8" si="2">ABS(MIN(G$6:G$8) - G7)</f>
+        <v>540</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="1"/>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>310</v>
+      </c>
+      <c r="E8" s="10">
+        <v>36000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>11160</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>12870</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
+        <v>14580</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f>MIN(MIN(G6:I6),MIN(G7:I7),MIN(G8:I8))</f>
+        <v>11160</v>
+      </c>
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn._xlws.FILTER($C$6:$C$8,($G$6:$G$8=B12)+($H$6:$H$8=B12)+($I$6:$I$8=B12))</f>
+        <v>john</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f>MIN(MAX(G6:I6), MAX(G7:I7), MAX(G8:H8))</f>
+        <v>12312</v>
+      </c>
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13">_xlfn._xlws.FILTER($C$6:$C$8,($G$6:$G$8=B13)+($H$6:$H$8=B13)+($I$6:$I$8=B13))</f>
+        <v>capital</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="B14">
+        <f>MIN(MAX(J6:J8), MAX(K6:K8), MAX(L6:L8))</f>
+        <v>1152</v>
+      </c>
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14">_xlfn._xlws.FILTER($C$6:$C$8,($J$6:$J$8=B14)+($K$6:$K$8=B14)+($L$6:$L$8=B14))</f>
+        <v>capital</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="5">
         <v>12000</v>
       </c>
-      <c r="I5" s="5">
+      <c r="E18" s="2">
         <v>15000</v>
       </c>
-      <c r="J5" s="6">
+      <c r="F18" s="37">
         <v>18000</v>
       </c>
-      <c r="M5">
-        <f>H$5*3</f>
-        <v>36000</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ref="N5:O5" si="0">I$5*3</f>
-        <v>45000</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
-        <v>342</v>
-      </c>
-      <c r="F6" s="8">
-        <v>54000</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="H6" s="1">
-        <f>$E6*$B$3 + MAX((H$5*$B$3/12 - $F6)*$G6, 0)</f>
+      <c r="D20" s="27">
         <v>12312</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" ref="I6:J6" si="1">$E6*$B$3 + MAX((I$5*$B$3/12 - $F6)*$G6, 0)</f>
+      <c r="E20" s="34">
         <v>12312</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
+      <c r="F20" s="31">
         <v>12312</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D7" s="11" t="s">
+      <c r="G20" s="12">
+        <f>SUMPRODUCT($D$19:$F$19,D20:F20)</f>
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
-        <v>325</v>
-      </c>
-      <c r="F7" s="8">
-        <v>45000</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" ref="H7:J8" si="2">$E7*$B$3 + MAX((H$5*$B$3/12 - $F7)*$G7, 0)</f>
+      <c r="D21" s="28">
         <v>11700</v>
       </c>
-      <c r="I7" s="8">
-        <f t="shared" si="2"/>
+      <c r="E21" s="1">
         <v>11700</v>
       </c>
-      <c r="J7" s="9">
-        <f t="shared" si="2"/>
+      <c r="F21" s="32">
         <v>13950</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D8" s="12" t="s">
+      <c r="G21" s="12">
+        <f t="shared" ref="G21:G22" si="3">SUMPRODUCT($D$19:$F$19,D21:F21)</f>
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
-        <v>310</v>
-      </c>
-      <c r="F8" s="5">
-        <v>36000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="2"/>
+      <c r="D22" s="29">
         <v>11160</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
+      <c r="E22" s="35">
         <v>12870</v>
       </c>
-      <c r="J8" s="6">
-        <f t="shared" si="2"/>
+      <c r="F22" s="33">
         <v>14580</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <f>MIN(MIN(H6:J6),MIN(H7:J7),MIN(H8:J8))</f>
-        <v>11160</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <f>MIN(MAX(H6:J6), MAX(H7:J7), MAX(H8:I8))</f>
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>10</v>
+      <c r="G22" s="13">
+        <f t="shared" si="3"/>
+        <v>12186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <f>MIN(G20:G22)</f>
+        <v>11925</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.XLOOKUP(B24,G20:G22,C20:C22)</f>
+        <v>lennox</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H4:J4"/>
+  <mergeCells count="5">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
